--- a/Combined_datasets/14-OM-datasets/14-OM-seen/label_transfer/ecom_space_pred.xlsx
+++ b/Combined_datasets/14-OM-datasets/14-OM-seen/label_transfer/ecom_space_pred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Combined_datasets/14-OM-datasets/14-OM-seen/label_transfer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35E04D8-2062-D344-9C30-866E548D1AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2B8D26-9F0F-B14D-9DA6-40B6F22AE00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
   <si>
     <t>OM_Regular</t>
   </si>
@@ -28,87 +28,6 @@
     <t>OM_Prediction</t>
   </si>
   <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableName:class9_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class11_name:map_str2 Mapping Strategy for class4_name:map_str3 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class12_name:map_str1 Mapping Strategy for class11_name:map_str1 Mapping Strategy for class14_name:map_str1 Association Strategy for assoc3:assoc_str1 Association Strategy for assoc4:assoc_str1 Association Strategy for assoc1:assoc_str2 Association Strategy for assoc2:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc6:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL, PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),CREATE TABLE `class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class7_name`(`c10_at2`c10_at2_type,`c11_at1`c11_at1_type(64)`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `assoc1`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc1_c01_at1_idx`(`c01_at1`), KEY `FK_assoc1_c1_at1_idx`(`c1_at1`), KEY `FK_assoc1_c1_at1_idx`(`c1_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class14_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULLCREATE TABLE `assoc4`()`c3_at1`c3_at1_type NOT  NULL`c01_at1`c01_at1_type NOT  NULL, KEY `FK_assoc4_c3_at1_idx`(`c3_at1`) KEY `FK_assoc4_c01_at1D_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`,`c01_at1`)CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc1_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class14_name` ADD CONSTRAINT FK_class14_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc4_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class10_name:map_str2 Mapping Strategy for class11_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class14_name:map_str3 Mapping Strategy for class4_name:map_str1 Mapping Strategy for class5_name:map_str1 Association Strategy for assoc1:assoc_str2 Association Strategy for assoc2:assoc_str2 Association Strategy for assoc3:assoc_str2 Association Strategy for assoc4:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc6:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL, PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type NOT  NULLCREATE TABLE `class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class13_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `assoc1`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc1_c01_at1_idx`(`c01_at1`), KEY `FK_assoc1_c1_at1_idx`(`c1_at1`), KEY `FK_assoc1_c1_at1_idx`(`c1_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class10_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class14_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `assoc4`()`c3_at1`c3_at1_type NOT  NULL`c01_at1`c01_at1_type NOT  NULL, KEY `FK_assoc4_c3_at1_idx`(`c3_at1`) KEY `FK_assoc4_c01_at1D_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`,`c01_at1`)CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class13_name` ADD CONSTRAINT `FK_class13_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc1_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class10_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class14_name` ADD CONSTRAINT FK_class14_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc4_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_nameTableNameclass6_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class11_name:map_str2 Mapping Strategy for class14_name:map_str2 Mapping Strategy for class4_name:map_str3 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class7_name:map_str1 Mapping Strategy for class9_name:map_str1 Mapping Strategy for class10_name:map_str1 Mapping Strategy for class11_name:map_str1 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc4:assoc_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc3:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type NOT  NULLCREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class4_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c01_at1`c01_at1_type KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class10_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),CREATE TABLE `assoc2`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc2_c2_at1_idx`(`c2_at1`) KEY `FK_assoc2_c1_at1_idx`(`c1_at1`) PRIMARY  KEY  (`c2_at1`,`c1_at1`)CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class10_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc2_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class4_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class10_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class11_name:map_str2 Mapping Strategy for class14_name:map_str2 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class11_name:map_str3 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc3:assoc_str2 Association Strategy for assoc4:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),CREATE TABLE `class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class13_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class4_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type`c01_at1`c01_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class10_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `assoc2`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc2_c2_at1_idx`(`c2_at1`) KEY `FK_assoc2_c1_at1_idx`(`c1_at1`) PRIMARY  KEY  (`c2_at1`,`c1_at1`)CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULLCREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class13_name` ADD CONSTRAINT `FK_class13_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class10_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc2_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class11_name:map_str2 Mapping Strategy for class9_name:map_str3 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class14_name:map_str3 Mapping Strategy for class4_name:map_str1 Mapping Strategy for class5_name:map_str1 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc3:assoc_str2 Association Strategy for assoc4:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type NOT  NULLCREATE TABLE `class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class10_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),CREATE TABLE `assoc2`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc2_c2_at1_idx`(`c2_at1`) KEY `FK_assoc2_c1_at1_idx`(`c1_at1`) PRIMARY  KEY  (`c2_at1`,`c1_at1`)CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `assoc4`()`c3_at1`c3_at1_type NOT  NULL`c01_at1`c01_at1_type NOT  NULL, KEY `FK_assoc4_c3_at1_idx`(`c3_at1`) KEY `FK_assoc4_c01_at1D_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`,`c01_at1`)CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class10_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc2_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc4_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass6_nameTableNameclass7_nameTableNameclass10_nameTableNameclass11_nameTableNameclass12_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class11_name:map_str2 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class14_name:map_str3 Mapping Strategy for class4_name:map_str1 Mapping Strategy for class5_name:map_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc1:assoc_str2 Association Strategy for assoc2:assoc_str2 Association Strategy for assoc3:assoc_str2 Association Strategy for assoc4:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL, PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),CREATE TABLE `class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class4_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `assoc1`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc1_c01_at1_idx`(`c01_at1`), KEY `FK_assoc1_c1_at1_idx`(`c1_at1`), KEY `FK_assoc1_c1_at1_idx`(`c1_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class14_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),CREATE TABLE `assoc2`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc2_c2_at1_idx`(`c2_at1`) KEY `FK_assoc2_c1_at1_idx`(`c1_at1`) PRIMARY  KEY  (`c2_at1`,`c1_at1`)CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULLCREATE TABLE `assoc4`()`c3_at1`c3_at1_type NOT  NULL`c01_at1`c01_at1_type NOT  NULL, KEY `FK_assoc4_c3_at1_idx`(`c3_at1`) KEY `FK_assoc4_c01_at1D_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`,`c01_at1`)CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc1_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class14_name` ADD CONSTRAINT FK_class14_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc2_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc4_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_nameTableNameassoc8TableNameclass13_nameTableNameclass6_nameTableNameclass7_nameTableNameclass10_nameTableNameclass11_nameTableNameclass12_nameTableNameclass14_nameTableName:class9_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class10_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class14_name:map_str3 Mapping Strategy for class4_name:map_str1 Mapping Strategy for class5_name:map_str1 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc3:assoc_str2 Association Strategy for assoc4:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc6:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class10_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),CREATE TABLE `assoc2`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc2_c2_at1_idx`(`c2_at1`) KEY `FK_assoc2_c1_at1_idx`(`c1_at1`) PRIMARY  KEY  (`c2_at1`,`c1_at1`)CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `assoc4`()`c3_at1`c3_at1_type NOT  NULL`c01_at1`c01_at1_type NOT  NULL, KEY `FK_assoc4_c3_at1_idx`(`c3_at1`) KEY `FK_assoc4_c01_at1D_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`,`c01_at1`)CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ALTER TABLE `class10_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc2_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc4_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class4_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class11_name:map_str2 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class12_name:map_str1 Mapping Strategy for class11_name:map_str1 Mapping Strategy for class14_name:map_str1 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str2 Association Strategy for assoc3:assoc_str2 Association Strategy for assoc4:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc6:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class4_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class10_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `assoc2`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc2_c2_at1_idx`(`c2_at1`) KEY `FK_assoc2_c1_at1_idx`(`c1_at1`) PRIMARY  KEY  (`c2_at1`,`c1_at1`)CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULLCREATE TABLE `assoc4`()`c3_at1`c3_at1_type NOT  NULL`c01_at1`c01_at1_type NOT  NULL, KEY `FK_assoc4_c3_at1_idx`(`c3_at1`) KEY `FK_assoc4_c01_at1D_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`,`c01_at1`)CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ALTER TABLE `class10_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc2_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc4_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class11_name:map_str2 Mapping Strategy for class4_name:map_str3 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class14_name:map_str3 Association Strategy for assoc1:assoc_str2 Association Strategy for assoc2:assoc_str2 Association Strategy for assoc3:assoc_str2 Association Strategy for assoc4:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc6:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL, PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),CREATE TABLE `class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class13_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class7_name`(`c10_at2`c10_at2_type,`c11_at1`c11_at1_type(64)`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class4_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `assoc1`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc1_c01_at1_idx`(`c01_at1`), KEY `FK_assoc1_c1_at1_idx`(`c1_at1`), KEY `FK_assoc1_c1_at1_idx`(`c1_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type`c01_at1`c01_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class14_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULLCREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class13_name` ADD CONSTRAINT `FK_class13_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc1_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class14_name` ADD CONSTRAINT FK_class14_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_nameTableNameassoc7TableNameassoc5TableNameclass8_nameTableNameclass6_nameTableNameclass7_nameTableNameclass10_nameTableNameclass11_nameTableNameclass12_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class11_name:map_str2 Mapping Strategy for class9_name:map_str3 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class14_name:map_str3 Mapping Strategy for class4_name:map_str1 Mapping Strategy for class5_name:map_str1 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str2 Association Strategy for assoc3:assoc_str2 Association Strategy for assoc4:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc6:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULLCREATE TABLE `assoc4`()`c3_at1`c3_at1_type NOT  NULL`c01_at1`c01_at1_type NOT  NULL, KEY `FK_assoc4_c3_at1_idx`(`c3_at1`) KEY `FK_assoc4_c01_at1D_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`,`c01_at1`)CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc4_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_nameTableNameclass6_nameTableNameclass7_nameTableNameclass10_nameTableNameclass11_nameTableNameclass12_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class10_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class11_name:map_str2 Mapping Strategy for class14_name:map_str2 Mapping Strategy for class4_name:map_str3 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class11_name:map_str3 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc3:assoc_str1 Association Strategy for assoc4:assoc_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc2:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class4_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type`c01_at1`c01_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_nameTableNameassoc8TableNameclass14_nameTableName:class9_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class10_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class11_name:map_str2 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class14_name:map_str3 Mapping Strategy for class4_name:map_str1 Mapping Strategy for class5_name:map_str1 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc3:assoc_str2 Association Strategy for assoc4:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc6:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type NOT  NULLCREATE TABLE `class7_name`(`c10_at2`c10_at2_type,`c11_at1`c11_at1_type(64)`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c01_at1`c01_at1_type KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `assoc2`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc2_c2_at1_idx`(`c2_at1`) KEY `FK_assoc2_c1_at1_idx`(`c1_at1`) PRIMARY  KEY  (`c2_at1`,`c1_at1`)CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULLCREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc2_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class10_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class14_name:map_str2 Mapping Strategy for class4_name:map_str3 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class11_name:map_str3 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc4:assoc_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc3:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL, PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `assoc1`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc1_c01_at1_idx`(`c01_at1`), KEY `FK_assoc1_c1_at1_idx`(`c1_at1`), KEY `FK_assoc1_c1_at1_idx`(`c1_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type`c01_at1`c01_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULLCREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc1_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class11_name:map_str2 Mapping Strategy for class4_name:map_str3 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class14_name:map_str3 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc3:assoc_str1 Association Strategy for assoc4:assoc_str1 Association Strategy for assoc2:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc6:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type NOT  NULLCREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c01_at1`c01_at1_type KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class10_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),CREATE TABLE `assoc2`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc2_c2_at1_idx`(`c2_at1`) KEY `FK_assoc2_c1_at1_idx`(`c1_at1`) PRIMARY  KEY  (`c2_at1`,`c1_at1`)CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class10_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc2_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass14_nameTableName:class9_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class11_name:map_str2 Mapping Strategy for class14_name:map_str2 Mapping Strategy for class4_name:map_str3 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class7_name:map_str1 Mapping Strategy for class9_name:map_str1 Mapping Strategy for class10_name:map_str1 Mapping Strategy for class11_name:map_str1 Association Strategy for assoc4:assoc_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc1:assoc_str2 Association Strategy for assoc2:assoc_str2 Association Strategy for assoc3:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),CREATE TABLE `class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class4_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type`c01_at1`c01_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class10_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),CREATE TABLE `assoc2`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc2_c2_at1_idx`(`c2_at1`) KEY `FK_assoc2_c1_at1_idx`(`c1_at1`) PRIMARY  KEY  (`c2_at1`,`c1_at1`)CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class10_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc2_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class4_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class11_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class14_name:map_str3 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc1:assoc_str2 Association Strategy for assoc3:assoc_str2 Association Strategy for assoc4:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc6:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),CREATE TABLE `class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class4_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class14_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULLCREATE TABLE `assoc4`()`c3_at1`c3_at1_type NOT  NULL`c01_at1`c01_at1_type NOT  NULL, KEY `FK_assoc4_c3_at1_idx`(`c3_at1`) KEY `FK_assoc4_c01_at1D_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`,`c01_at1`)CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class14_name` ADD CONSTRAINT FK_class14_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc4_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class4_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class12_name:map_str1 Mapping Strategy for class11_name:map_str1 Mapping Strategy for class14_name:map_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc3:assoc_str1 Association Strategy for assoc4:assoc_str1 Association Strategy for assoc1:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc6:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL, PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),CREATE TABLE `class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class4_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `assoc1`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc1_c01_at1_idx`(`c01_at1`), KEY `FK_assoc1_c1_at1_idx`(`c1_at1`), KEY `FK_assoc1_c1_at1_idx`(`c1_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type`c01_at1`c01_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class14_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc1_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class14_name` ADD CONSTRAINT FK_class14_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class4_name:map_str3 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class14_name:map_str3 Mapping Strategy for class7_name:map_str1 Mapping Strategy for class9_name:map_str1 Mapping Strategy for class10_name:map_str1 Mapping Strategy for class11_name:map_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc3:assoc_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc1:assoc_str2 Association Strategy for assoc4:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL, PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),CREATE TABLE `class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class13_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class4_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `assoc1`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc1_c01_at1_idx`(`c01_at1`), KEY `FK_assoc1_c1_at1_idx`(`c1_at1`), KEY `FK_assoc1_c1_at1_idx`(`c1_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type`c01_at1`c01_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `assoc2`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc2_c2_at1_idx`(`c2_at1`) KEY `FK_assoc2_c1_at1_idx`(`c1_at1`) PRIMARY  KEY  (`c2_at1`,`c1_at1`)CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class14_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULLCREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class13_name` ADD CONSTRAINT `FK_class13_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc1_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc2_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class14_name` ADD CONSTRAINT FK_class14_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_nameTableNameassoc8TableNameclass14_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str3 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class4_name:map_str1 Mapping Strategy for class5_name:map_str1 Mapping Strategy for class12_name:map_str1 Mapping Strategy for class11_name:map_str1 Mapping Strategy for class14_name:map_str1 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc3:assoc_str2 Association Strategy for assoc4:assoc_str2 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc6:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),CREATE TABLE `class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class13_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL PRIMARY  KEY  (`c2_at1`),CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),CREATE TABLE `assoc2`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type NOT  NULL KEY `FK_assoc2_c2_at1_idx`(`c2_at1`) KEY `FK_assoc2_c1_at1_idx`(`c1_at1`) PRIMARY  KEY  (`c2_at1`,`c1_at1`)CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`ItemID`), PRIMARY  KEY  (`c3_at1`),CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),CREATE TABLE `assoc4`()`c3_at1`c3_at1_type NOT  NULL`c01_at1`c01_at1_type NOT  NULL, KEY `FK_assoc4_c3_at1_idx`(`c3_at1`) KEY `FK_assoc4_c01_at1D_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`,`c01_at1`)CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class13_name` ADD CONSTRAINT `FK_class13_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc2_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc4_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_nameTableNameclass3_nameTableNameclass4_nameTableNameclass5_nameTableNameassoc7TableNameassoc5TableNameclass8_nameTableNameassoc8TableNameclass13_nameTableNameclass6_nameTableNameclass7_nameTableNameclass10_nameTableNameclass11_nameTableNameclass12_nameTableNameclass14_nameTableName:class9_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class14_name:map_str2 Mapping Strategy for class4_name:map_str3 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class9_name:map_str3 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class11_name:map_str3 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc3:assoc_str1 Association Strategy for assoc4:assoc_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),);CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),);CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),);CREATE TABLE `class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class13_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class4_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),);CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),);CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),);CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type`c01_at1`c01_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class10_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),);CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class14_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`),); ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class13_name` ADD CONSTRAINT `FK_class13_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class10_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT `FK_ProductAssetAssociation_assetID` FOREIGN  KEY  (`assetID`) REFERENCES `Asset`(`assetID`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class14_name` ADD CONSTRAINT FK_class14_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_nameTableNameclass3_nameTableNameclass4_nameTableNameclass5_nameTableNameassoc7TableNameassoc5TableNameclass8_nameTableNameassoc8TableNameclass13_nameTableNameclass6_nameTableNameclass7_nameTableNameclass10_nameTableNameclass11_nameTableNameclass12_nameTableNameclass14_nameTableName:class9_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class14_name:map_str2 Mapping Strategy for class4_name:map_str3 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class9_name:map_str3 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class11_name:map_str3 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc3:assoc_str1 Association Strategy for assoc4:assoc_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),);CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),);CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),);CREATE TABLE `class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class13_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class4_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),);CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),);CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),);CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type`c01_at1`c01_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class10_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),);CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`),); ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class13_name` ADD CONSTRAINT `FK_class13_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class10_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT `FK_ProductAssetAssociation_assetID` FOREIGN  KEY  (`assetID`) REFERENCES `Asset`(`assetID`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_nameTableNameclass3_nameTableNameclass4_nameTableNameclass5_nameTableNameassoc7TableNameassoc5TableNameclass8_nameTableNameassoc8TableNameclass13_nameTableNameclass6_nameTableNameclass7_nameTableNameclass10_nameTableNameclass11_nameTableNameclass12_nameTableNameclass14_nameTableName:class9_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class4_name:map_str2 Mapping Strategy for class5_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class14_name:map_str2 Mapping Strategy for class9_name:map_str3 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class11_name:map_str3 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc3:assoc_str1 Association Strategy for assoc4:assoc_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),);CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),);CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),);CREATE TABLE `class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class13_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),);CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),);CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),);CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type`c01_at1`c01_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class10_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),);CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class14_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`),); ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class13_name` ADD CONSTRAINT `FK_class13_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class10_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT `FK_ProductAssetAssociation_assetID` FOREIGN  KEY  (`assetID`) REFERENCES `Asset`(`assetID`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class14_name` ADD CONSTRAINT FK_class14_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t>module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_nameTableNameclass3_nameTableNameclass4_nameTableNameclass5_nameTableNameassoc7TableNameassoc5TableNameclass8_nameTableNameassoc8TableNameclass13_nameTableNameclass6_nameTableNameclass7_nameTableNameclass10_nameTableNameclass11_nameTableNameclass12_nameTableNameclass14_nameTableName:class9_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class14_name:map_str2 Mapping Strategy for class4_name:map_str3 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class11_name:map_str3 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc3:assoc_str1 Association Strategy for assoc4:assoc_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),);CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),);CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),);CREATE TABLE `class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class13_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),);CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),);CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),);CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type`c01_at1`c01_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class10_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),);CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class14_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`),); ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class13_name` ADD CONSTRAINT `FK_class13_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class10_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class14_name` ADD CONSTRAINT FK_class14_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_nameTableNameclass3_nameTableNameclass4_nameTableNameclass5_nameTableNameassoc7TableNameassoc5TableNameclass8_nameTableNameassoc8TableNameclass13_nameTableNameclass6_nameTableNameclass7_nameTableNameclass10_nameTableNameclass11_nameTableNameclass12_nameTableNameclass14_nameTableName:class9_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class14_name:map_str2 Mapping Strategy for class4_name:map_str3 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class11_name:map_str3 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc3:assoc_str1 Association Strategy for assoc4:assoc_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),);CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),);CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),);CREATE TABLE `class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class13_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class4_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),);CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),);CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),);CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type`c01_at1`c01_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class10_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),);CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`),); ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class13_name` ADD CONSTRAINT `FK_class13_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class10_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_nameTableNameclass3_nameTableNameclass4_nameTableNameclass5_nameTableNameassoc7TableNameassoc5TableNameclass8_nameTableNameassoc8TableNameclass13_nameTableNameclass6_nameTableNameclass7_nameTableNameclass10_nameTableNameclass11_nameTableNameclass12_nameTableNameclass14_nameTableName:class9_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class5_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class14_name:map_str2 Mapping Strategy for class4_name:map_str3 Mapping Strategy for class9_name:map_str3 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class11_name:map_str3 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc3:assoc_str1 Association Strategy for assoc4:assoc_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),);CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),);CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),);CREATE TABLE `class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class13_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class4_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),);CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),);CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),);CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type`c01_at1`c01_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class10_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),);CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`),); ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class13_name` ADD CONSTRAINT `FK_class13_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class10_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_nameTableNameclass3_nameTableNameclass4_nameTableNameclass5_nameTableNameassoc7TableNameassoc5TableNameclass8_nameTableNameassoc8TableNameclass13_nameTableNameclass6_nameTableNameclass7_nameTableNameclass10_nameTableNameclass11_nameTableNameclass12_nameTableNameclass14_nameTableName:class9_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class4_name:map_str2 Mapping Strategy for class5_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class10_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class14_name:map_str3 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc3:assoc_str1 Association Strategy for assoc4:assoc_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),);CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),);CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),);CREATE TABLE `class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class13_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),);CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),);CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),);CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type`c01_at1`c01_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class10_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),);CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class14_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`),); ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class13_name` ADD CONSTRAINT `FK_class13_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class10_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class14_name` ADD CONSTRAINT FK_class14_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_nameTableNameclass3_nameTableNameclass4_nameTableNameclass5_nameTableNameassoc7TableNameassoc5TableNameclass8_nameTableNameassoc8TableNameclass13_nameTableNameclass6_nameTableNameclass7_nameTableNameclass10_nameTableNameclass11_nameTableNameclass12_nameTableNameclass14_nameTableName:class9_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class9_name:map_str2 Mapping Strategy for class10_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class4_name:map_str3 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class14_name:map_str3 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc3:assoc_str1 Association Strategy for assoc4:assoc_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),);CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),);CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),);CREATE TABLE `class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class13_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_type NOT  NULL KEY `FK_class11_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class4_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),);CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),);CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),);CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type`c01_at1`c01_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),);CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class14_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`),); ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class13_name` ADD CONSTRAINT `FK_class13_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class11_name` ADD CONSTRAINT `FK_class11_name_c7_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class14_name` ADD CONSTRAINT FK_class14_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
     <t xml:space="preserve">module OM_name:0,open Declaration one sig class1_name extends ClassattrSet=c1_at1id=c1_at1isAbstract=No no parent} one sig c1_at1 extends c1_at1_type, one sig class01_name extends ClassattrSet=c01_at1id=c01_at1isAbstract=No no parent} one sig c01_at1 extends c01_at1_type, one sig assoc1 extends  Association src=class1_namedst=class01_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class2_name extends ClassattrSet=c2_at1id=c2_at1isAbstract=No no parent} one sig c2_at1 extends c2_at1_type, one sig assoc2 extends  Association src=class1_namedst=class2_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class3_name extends ClassattrSet=c3_at1+c3_at2id=c3_at1isAbstract=No no parent} one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type, one sig class4_name extends ClassattrSet=c4_at1 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c4_at1 extends c4_at1_type, one sig assoc3 extends Associationdst=class2_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class5_name extends ClassattrSet=c5_at1+c5_at2 one parent id=c3_at1isAbstract=No parent in class3_name} one sig c5_at2 extends c5_at2_type one sig c5_at1 extends c5_at1_type one sig assoc4 extends  Association src=class01_namedst=class3_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig class6_name extends ClassattrSet=c6_at1+c6_at2id=categoryIDisAbstract=No no parent} one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig class7_name extends ClassattrSet=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isAbstract=No no parent} one sig c7_at1 extends c7_at1_type one sig c7_at2 extends c7_at2_type one sig c7_at3 extends c7_at3_type one sig c7_at4 extends c7_at4_type one sig assoc5 extends  Association src=class7_namesrc=class6_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class8_name extends ClassattrSet=c8_at1id=c8_at1isAbstract=No no parent} one sig c8_at1 extends Integer one sig assoc6 extends  Association src=class7_namedst=class8_name src_multiplicity =src_mlpc dst_multiplicity =dst_mlpc,} one sig assoc7 extends  Association src=class7_namedst=class3_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class9_name extends ClassattrSet=c9_at1+c10_at2 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c9_at1 extends c9_at1_type one sig c10_at2 extends c10_at2_type one sig class10_name extends ClassattrSet=c10_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c10_at1 extends c10_at1_type one sig class11_name extends ClassattrSet=c11_at1 one parent id=c7_at1isAbstract=No parent in class7_name} one sig c11_at1 extends string one sig class12_name extends ClassattrSet=c12_at1+c12_at2+c12_at3id=c12_at1isAbstract=No no parent} one sig c12_at1 extends c12_at1_type one sig c12_at2 extends c12_at2_type one sig c12_at3 extends c12_at3_type one sig assoc8 extends  Association src=class7_namesrc=class12_name src_multiplicity =src_mlpc2 dst_multiplicity =dst_mlpc,} one sig class13_name extends ClassattrSet=c13_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c13_at1 extends c13_at1_type one sig class14_name extends ClassattrSet=c14_at1 one parent id=c12_at1isAbstract=No parent in class12_name} one sig c14_at1 extends c14_at1_type pred show run show ,TableName:class1_nameTableName:class01_nameTableNameclass2_nameTableNameclass3_nameTableNameclass4_nameTableNameclass5_nameTableNameassoc7TableNameassoc5TableNameclass8_nameTableNameassoc8TableNameclass13_nameTableNameclass6_nameTableNameclass7_nameTableNameclass10_nameTableNameclass11_nameTableNameclass12_nameTableNameclass14_nameTableName:class9_name Mapping Strategy for class1_name:map_str2 Mapping Strategy for class6_name:map_str2 Mapping Strategy for class7_name:map_str2 Mapping Strategy for class10_name:map_str2 Mapping Strategy for class11_name:map_str2 Mapping Strategy for class12_name:map_str2 Mapping Strategy for class4_name:map_str3 Mapping Strategy for class3_name:map_str3 Mapping Strategy for class9_name:map_str3 Mapping Strategy for class11_name:map_str3 Mapping Strategy for class14_name:map_str3 Association Strategy for assoc1:assoc_str1 Association Strategy for assoc2:assoc_str1 Association Strategy for assoc3:assoc_str1 Association Strategy for assoc4:assoc_str1 Association Strategy for assoc6:assoc_str1 Association Strategy for assoc5:assoc_str2 Association Strategy for assoc7:assoc_str2 Association Strategy for assoc8:assoc_str2, USE OM _name_0CREATE TABLE `class01_name`(`c01_at1`c01_at1_type NOT  NULL,`c1_at1`c1_at1_type, KEY `FK_class01_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c01_at1`),);CREATE TABLE `class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_type NOT  NULL PRIMARY  KEY  (`c6_at1`),);CREATE TABLE `class1_name`(`c1_at1`c1_at1_type NOT  NULL PRIMARY  KEY  (`c1_at1`),);CREATE TABLE `class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class13_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class4_name_c3_at1_idx`(`c3_at1`), PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class2_name`(`c2_at1`c2_at1_type NOT  NULL`c1_at1`c1_at1_type, KEY `FK_class2_name_c1_at1_idx`(`c1_at1`), PRIMARY  KEY  (`c2_at1`),);CREATE TABLE `class8_name`(`c8_at1`c8_at1_type NOT  NULL`c7_at1`c7_at1_type KEY `FK_class8_name_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c8_at1`),);CREATE TABLE `assoc7`(`c7_at1`c7_at1_type NOT  NULL`c3_at1`c3_at1_type NOT  NULL KEY `FK_assoc7_c7_at1_idx`(`c7_at1`) KEY `FK_assoc7_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`),);CREATE TABLE `class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_type NOT  NULL`c2_at1`c2_at1_type`c01_at1`c01_at1_type KEY `FK_class3_name_c2_at1_idx`(`c2_at1`) KEY `FK_class3_name_c01_at1_idx`(`c01_at1`) PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_type NOT  NULL PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_type NOT  NULL KEY `FK_class9_name_c7_at1_idx`(`c7_at1`), PRIMARY  KEY  (`c7_at1`),);CREATE TABLE `class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_type NOT  NULL KEY `FK_class5_name_c3_at1_idx`(`c3_at1`) PRIMARY  KEY  (`c3_at1`),);CREATE TABLE `assoc8`(`c12_at1`c12_at1_type NOT  NULL`c7_at1`c7_at1_type NOT  NULL KEY `FK_assoc8_c12_at1_idx`(`c12_at1`) KEY `FK_assoc8_c7_at1_idx`(`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`),);CREATE TABLE `class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_type NOT  NULL KEY `FK_class14_name_c12_at1_idx`(`c12_at1`) PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_type NOT  NULL PRIMARY  KEY  (`c12_at1`),);CREATE TABLE `assoc5`(`c7_at1`c7_at1_type NOT  NULL`c6_at1`c6_at1_type NOT  NULL KEY `FK_assoc5_c7_at1_idx`(`c7_at1`) KEY `FK_assoc5_c6_at1_idx`(`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`),); ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class13_name` ADD CONSTRAINT `FK_class13_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE ; ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`) REFERENCES `class1_name`(`c1_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_assoc7_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c2_at1` FOREIGN  KEY  (`c2_at1`) REFERENCES `class2_name`(`c2_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT `FK_class3_name_c01_at1` FOREIGN  KEY  (`c01_at1`) REFERENCES `class01_name`(`c01_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class5_name` ADD CONSTRAINT FK_class5_name_c3_at1` FOREIGN  KEY  (`c3_at1`) REFERENCES `class3_name`(`c3_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc8` ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ADD CONSTRAINT FK_assoc8_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `class14_name` ADD CONSTRAINT FK_class14_name_c12_at1` FOREIGN  KEY  (`c12_at1`) REFERENCES `class12_name`(`c12_at1`)ON DELETE CASCADE ON UPDATE CASCADE , ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c7_at1` FOREIGN  KEY  (`c7_at1`) REFERENCES `class7_name`(`c7_at1`)ON DELETE CASCADE ON UPDATE CASCADE  ADD CONSTRAINT FK_assoc5_c6_at1` FOREIGN  KEY  (`c6_at1`) REFERENCES `class6_name`(`c6_at1`)ON DELETE CASCADE ON UPDATE CASCADE </t>
   </si>
   <si>
@@ -305,6 +224,90 @@
   </si>
   <si>
     <t>module OM_name: 0, open Declaration one sig class1_name  extends  Class attrSet = c1_at1 id=c1_at1 isAbstract = No no parent } one sig c1_at1  extends  c1_at1_type, one sig class01_name  extends  Class attrSet = c01_at1 id=c01_at1 isAbstract = No no parent } one sig c01_at1  extends  c01_at1_type, one sig assoc1  extends  Association src = class1_name dst = class01_name  src_multiplicity  = src_mlpc  dst_multiplicity  = dst_mlpc, } one sig class2_name  extends  Class attrSet = c2_at1 id = c2_at1 isAbstract = No no parent } one sig c2_at1  extends  c2_at1_type, one sig assoc2  extends  Association src = class1_name dst = class2_name  src_multiplicity  = src_mlpc  dst_multiplicity  = dst_mlpc, } one sig class3_name  extends  Class attrSet = c3_at1+c3_at2 id=c3_at1 isAbstract = No no parent } one sig c3_at1  extends  c3_at1_type one sig c3_at2  extends  c3_at2_type, one sig class4_name  extends  Class attrSet = c4_at1 one parent id=c3_at1 isAbstract = No parent in class3_name } one sig c4_at1  extends  c4_at1_type, one sig assoc3  extends  Association dst = class2_name dst = class3_name  src_multiplicity  = src_mlpc  dst_multiplicity  = dst_mlpc, } one sig class5_name  extends  Class attrSet = c5_at1+c5_at2 one parent id=c3_at1 isAbstract = No parent in class3_name } one sig c5_at2  extends  c5_at2_type one sig c5_at1  extends  c5_at1_type one sig assoc4  extends  Association src = class01_name dst = class3_name  src_multiplicity  = src_mlpc  dst_multiplicity  = dst_mlpc, } one sig class6_name  extends  Class attrSet = c6_at1+c6_at2 id=categoryID isAbstract = No no parent } one sig c6_at1  extends  c6_at1_type one sig c6_at2  extends  c6_at2_type one sig class7_name  extends  Class attrSet = c7_at1+c7_at2+c7_at3+c7_at4 id=c7_at1 isAbstract = No no parent } one sig c7_at1  extends  c7_at1_type one sig c7_at2  extends  c7_at2_type one sig c7_at3  extends  c7_at3_type one sig c7_at4  extends  c7_at4_type one sig assoc5  extends  Association src = class7_name src = class6_name  src_multiplicity  = src_mlpc2  dst_multiplicity  = dst_mlpc, } one sig class8_name  extends  Class attrSet = c8_at1 id=c8_at1 isAbstract = No no parent } one sig c8_at1  extends  Integer one sig assoc6  extends  Association src = class7_name dst = class8_name  src_multiplicity  = src_mlpc  dst_multiplicity  = dst_mlpc, } one sig assoc7  extends  Association src = class7_name dst = class3_name  src_multiplicity  = src_mlpc2  dst_multiplicity  = dst_mlpc, } one sig class9_name  extends  Class attrSet = c9_at1+c10_at2 one parent id=c7_at1 isAbstract = No parent in class7_name } one sig c9_at1  extends  c9_at1_type one sig c10_at2  extends  c10_at2_type one sig class10_name  extends  Class attrSet = c10_at1 one parent id=c7_at1 isAbstract = No parent in class7_name } one sig c10_at1  extends  c10_at1_type one sig class11_name  extends  Class attrSet = c11_at1 one parent id=c7_at1 isAbstract = No parent in class7_name } one sig c11_at1  extends  string one sig class12_name  extends  Class attrSet = c12_at1+c12_at2+c12_at3 id = c12_at1 isAbstract = No no parent } one sig c12_at1  extends  c12_at1_type one sig c12_at2  extends  c12_at2_type one sig c12_at3  extends  c12_at3_type one sig assoc8  extends  Association src = class7_name src = class12_name  src_multiplicity  = src_mlpc2  dst_multiplicity  = dst_mlpc, } one sig class13_name  extends  Class attrSet = c13_at1 one parent id = c12_at1 isAbstract = No parent in class12_name } one sig c13_at1  extends  c13_at1_type one sig class14_name  extends  Class attrSet = c14_at1 one parent id = c12_at1 isAbstract = No parent in class12_name } one sig c14_at1  extends  c14_at1_type pred show run show , Table Name: class1_name Table Name: class01_name Table Name class2_name Table Name assoc8 Mapping Strategy for class1_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class12_name : map_str2 Mapping Strategy for class11_name : map_str2 Mapping Strategy for class14_name : map_str2 Mapping Strategy for class4_name : map_str1 Mapping Strategy for class5_name : map_str1 Mapping Strategy for class7_name : map_str1 Mapping Strategy for class9_name : map_str1 Mapping Strategy for class10_name : map_str1 Mapping Strategy for class11_name : map_str1 Association Strategy for assoc1 : assoc_str1 Association Strategy for assoc2 : assoc_str1 Association Strategy for assoc3 : assoc_str2 Association Strategy for assoc4 : assoc_str2 Association Strategy for assoc5 : assoc_str2 Association Strategy for assoc6 : assoc_str2 Association Strategy for assoc7 : assoc_str2 Association Strategy for assoc8 : assoc_str2, USE OM_name_0 CREATE TABLE `class01_name` ( `c01_at1` c01_at1_type  NOT  NULL, `c1_at1` c1_at1_type,  KEY  `FK_class01_name_c1_at1_idx` (`c1_at1`), PRIMARY  KEY  (`c01_at1`), ); CREATE TABLE `class6_name` ( `c7_at1` c7_at1_type(64) `c6_at1` c6_at1_type  NOT  NULL PRIMARY  KEY  (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at1` c1_at1_type  NOT  NULL PRIMARY  KEY  (`c1_at1`), ); CREATE TABLE `ShippingCartItemAssociation` ( `c3_at1` c3_at1_type  NOT  NULL `c2_at1` c2_at1_type  NOT  NULL  KEY  `FK_ShippingCartItemAssociation_ItemID_idx` (`ItemID`),  KEY  `FK_ShippingCartItemAssociation_shippingCartID_idx` (`shippingCartID`), PRIMARY  KEY  (`ItemID`,`shippingCartID`) ); CREATE TABLE `class13_name` ( `c12_at3` c12_at3_type(64) `c12_at2` c12_at2_type(64) `c13_at1` c13_at1_type(64) `c12_at1` c12_at1_type  NOT  NULL PRIMARY  KEY  (`c12_at1`), ); CREATE TABLE `class7_name` ( `DType` varchar(64), `c10_at2` c10_at2_type, `c11_at1` c11_at1_type(64) `c10_at1` c10_at1_type(64) `c7_at3` c7_at3_type(64) `c7_at2` c7_at2_type `c9_at1` c9_at1_type(20,5), `c7_at4` c7_at4_type(20,5) `c7_at1` c7_at1_type  NOT  NULL PRIMARY  KEY  (`c7_at1`), ); CREATE TABLE `class2_name` ( `c2_at1` c2_at1_type  NOT  NULL `c1_at1` c1_at1_type,  KEY  `FK_class2_name_c1_at1_idx` (`c1_at1`), PRIMARY  KEY  (`c2_at1`), ); CREATE TABLE `class8_name` ( `c8_at1` c8_at1_type  NOT  NULL PRIMARY  KEY  (`c8_at1`), ); CREATE TABLE `assoc7` ( `c7_at1` c7_at1_type  NOT  NULL `c3_at1` c3_at1_type  NOT  NULL  KEY  `FK_assoc7_c7_at1_idx` (`c7_at1`)  KEY  `FK_assoc7_c3_at1_idx` (`c3_at1`) PRIMARY  KEY  (`c7_at1`,`c3_at1`), ); CREATE TABLE `class3_name` ( `DType` varchar(64), `c5_at1` c5_at1_type, `c5_at2` c5_at2_type, `c4_at1` c4_at1_type, `c3_at2` c3_at2_type `c3_at1` c3_at1_type  NOT  NULL PRIMARY  KEY  (`c3_at1`), ); CREATE TABLE `assoc8` ( `c12_at1` c12_at1_type  NOT  NULL `c7_at1` c7_at1_type  NOT  NULL  KEY  `FK_assoc8_c12_at1_idx` (`c12_at1`)  KEY  `FK_assoc8_c7_at1_idx` (`c7_at1`) PRIMARY  KEY  (`c12_at1`,`c7_at1`), ); CREATE TABLE `class14_name` ( `c14_at1` c14_at1_type(64) `c12_at3` c12_at3_type(64) `c12_at2` c12_at2_type(64) `c12_at1` c12_at1_type  NOT  NULL PRIMARY  KEY  (`c12_at1`), ); CREATE TABLE `class12_name` ( `c12_at3` c12_at3_type(64) `c12_at2` c12_at2_type(64) `c12_at1` c12_at1_type  NOT  NULL PRIMARY  KEY  (`c12_at1`), ); CREATE TABLE `ProductCatalogAssociation` ( `c8_at1` c8_at1_type  NOT  NULL `c7_at1` c7_at1_type  NOT  NULL  KEY  `FK_ProductCatalogAssociation_CatalogID_idx` (`CatalogID`),  KEY  `FK_ProductCatalogAssociation_productID_idx` (`productID`), PRIMARY  KEY  (`CatalogID`,`productID`) ); CREATE TABLE `OrderItemAssociation` ( `c3_at1` c3_at1_type  NOT  NULL `c01_at1` c01_at1_type  NOT  NULL,  KEY  `FK_OrderItemAssociation_ItemID_idx` (`ItemID`),  KEY  `FK_OrderItemAssociation_orderID_idx` (`orderID`), PRIMARY  KEY  (`ItemID`,`orderID`) ); CREATE TABLE `assoc5` ( `c7_at1` c7_at1_type  NOT  NULL `c6_at1` c6_at1_type  NOT  NULL  KEY  `FK_assoc5_c7_at1_idx` (`c7_at1`)  KEY  `FK_assoc5_c6_at1_idx` (`c6_at1`) PRIMARY  KEY  (`c7_at1`,`c6_at1`), ); ALTER TABLE `class01_name` ADD CONSTRAINT `FK_class01_name_c1_at1` FOREIGN  KEY  (`c1_at1`)  REFERENCES  `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `ShippingCartItemAssociation` ADD CONSTRAINT `FK_ShippingCartItemAssociation_ItemID` FOREIGN  KEY  (`ItemID`)  REFERENCES  `Item` (`ItemID`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_ShippingCartItemAssociation_shippingCartID` FOREIGN  KEY  (`shippingCartID`)  REFERENCES  `ShippingCart` (`shippingCartID`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class2_name` ADD CONSTRAINT `FK_class2_name_c1_at1` FOREIGN  KEY  (`c1_at1`)  REFERENCES  `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc7` ADD CONSTRAINT `FK_assoc7_c7_a</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass10_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c10_at2`c10_at2_type,`c11_at1`c11_at1_type(64)`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class2_name`addconstraint`fk_class2_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc7_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`assoc1`addconstraint`fk_assoc1_c4_at3`foreignkey(`c4_at3`)references`class4_name`(`c4_at3`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascade;primarykey`assoc4`addconstraint`fk_assoc4_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc4_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;primarykey`assoc5`addconstraint`fk_assoc5_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc5_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class4_name_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;addconstraint`fk_class4_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc9`addconstraint`fk_assoc9_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc9_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass10_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c10_at2`c10_at2_type,`c11_at1`c11_at1_type(64)`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class2_name`addconstraint`fk_class2_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc7_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`assoc1`addconstraint`fk_assoc1_c4_at3`foreignkey(`c4_at3`)references`class4_name`(`c4_at3`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascade;primarykey`assoc4`addconstraint`fk_assoc4_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc4_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;primarykey`assoc5`addconstraint`fk_assoc5_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc5_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class4_name_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;addconstraint`fk_class4_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc9`addconstraint`fk_assoc9_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc9_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass10_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c10_at2`c10_at2_type,`c11_at1`c11_at1_type(64)`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class2_name`addconstraint`fk_class2_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc7_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`assoc1`addconstraint`fk_assoc1_c4_at3`foreignkey(`c4_at3`)references`class4_name`(`c4_at3`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascade;primarykey`assoc4`addconstraint`fk_assoc4_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc4_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;primarykey`assoc5`addconstraint`fk_assoc5_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc5_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class4_name_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;addconstraint`fk_class4_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc9`addconstraint`fk_assoc9_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc9_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascade</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_typenotnullcreatetable`class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class13_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_typenotnullcreatetable`class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class13_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_typenotnullcreatetable`class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class13_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass4_name:map_str3mappingstrategyforclass3_name:map_str3mappingstrategyforclass7_name:map_str1mappingstrategyforclass9_name:map_str1mappingstrategyforclass10_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_typenotnullcreatetable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typekey`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class3_name`addconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass4_name:map_str3mappingstrategyforclass3_name:map_str3mappingstrategyforclass7_name:map_str1mappingstrategyforclass9_name:map_str1mappingstrategyforclass10_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_typenotnullcreatetable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typekey`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class3_name`addconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass4_name:map_str3mappingstrategyforclass3_name:map_str3mappingstrategyforclass7_name:map_str1mappingstrategyforclass9_name:map_str1mappingstrategyforclass10_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_typenotnullcreatetable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typekey`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class3_name`addconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass4_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass3_name:map_str3mappingstrategyforclass11_name:map_str3associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class13_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass4_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass3_name:map_str3mappingstrategyforclass11_name:map_str3associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class13_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass4_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass3_name:map_str3mappingstrategyforclass11_name:map_str3associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class13_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass4_name:map_str3mappingstrategyforclass9_name:map_str3mappingstrategyforclass10_name:map_str3mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_typenotnullcreatetable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc4`addconstraint`fk_assoc4_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc4_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass4_name:map_str3mappingstrategyforclass9_name:map_str3mappingstrategyforclass10_name:map_str3mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_typenotnullcreatetable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc4`addconstraint`fk_assoc4_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc4_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass4_name:map_str3mappingstrategyforclass9_name:map_str3mappingstrategyforclass10_name:map_str3mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_typenotnullcreatetable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc4`addconstraint`fk_assoc4_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc4_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass10_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc7_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`assoc1`addconstraint`fk_assoc1_c4_at3`foreignkey(`c4_at3`)references`class4_name`(`c4_at3`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascade;primarykey`assoc4`addconstraint`fk_assoc4_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc4_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;primarykey`assoc5`addconstraint`fk_assoc5_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc5_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class4_name_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;addconstraint`fk_class4_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc9`addconstraint`fk_assoc9_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc9_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass10_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc7_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`assoc1`addconstraint`fk_assoc1_c4_at3`foreignkey(`c4_at3`)references`class4_name`(`c4_at3`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascade;primarykey`assoc4`addconstraint`fk_assoc4_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc4_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;primarykey`assoc5`addconstraint`fk_assoc5_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc5_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class4_name_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;addconstraint`fk_class4_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc9`addconstraint`fk_assoc9_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc9_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass10_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc7_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`assoc1`addconstraint`fk_assoc1_c4_at3`foreignkey(`c4_at3`)references`class4_name`(`c4_at3`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascade;primarykey`assoc4`addconstraint`fk_assoc4_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc4_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;primarykey`assoc5`addconstraint`fk_assoc5_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc5_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class4_name_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;addconstraint`fk_class4_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc9`addconstraint`fk_assoc9_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc9_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascade</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str3mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc4`addconstraint`fk_assoc4_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc4_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str3mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc4`addconstraint`fk_assoc4_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc4_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str3mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc4`addconstraint`fk_assoc4_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc4_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass4_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass3_name:map_str3associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc7_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc4`addconstraint`fk_assoc4_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc4_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass4_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass3_name:map_str3associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc7_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc4`addconstraint`fk_assoc4_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc4_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass4_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass3_name:map_str3associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc7_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc4`addconstraint`fk_assoc4_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc4_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass10_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class13_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class7_name`(`c10_at2`c10_at2_type,`c11_at1`c11_at1_type(64)`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class2_name`addconstraint`fk_class2_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass10_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class13_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class7_name`(`c10_at2`c10_at2_type,`c11_at1`c11_at1_type(64)`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class2_name`addconstraint`fk_class2_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`clas</t>
+  </si>
+  <si>
+    <t>s12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8</t>
+  </si>
+  <si>
+    <t>`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_</t>
+  </si>
+  <si>
+    <t>name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupd</t>
+  </si>
+  <si>
+    <t>atecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c4_at1`foreignkey(`c4_at1`)references`class4_name`(`c4_at1`)ondeletecascadeonupdatecascade;primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascade</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass4_name:map_str3mappingstrategyforclass9_name:map_str3mappingstrategyforclass10_name:map_str3mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class2_name`addconstraint`fk_class2_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc7_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc4`addconstraint`fk_assoc4_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc4_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass4_name:map_str3mappingstrategyforclass9_name:map_str3mappingstrategyforclass10_name:map_str3mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class2_name`addconstraint`fk_class2_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc7_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc4`addconstraint`fk_assoc4_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc4_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass4_name:map_str3mappingstrategyforclass9_name:map_str3mappingstrategyforclass10_name:map_str3mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class2_name`addconstraint`fk_class2_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc7_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc4`addconstraint`fk_assoc4_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc4_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_typenotnullcreatetable`class7_name`(`c10_at2`c10_at2_type,`c11_at1`c11_at1_type(64)`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typekey`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc7_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`assoc1`addconstraint`fk_assoc1_c4_at3`foreignkey(`c4_at3`)references`class4_name`(`c4_at3`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascade;primarykey`assoc4`addconstraint`fk_assoc4_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc4_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;primarykey`assoc5`addconstraint`fk_assoc5_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc5_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`assoc6`primarykey`class7_name`addconstraint`fk_assoc6_c4_at3`foreignkey(`c4_at3`)references`class4_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class4_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc9`addconstraint`fk_assoc9_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc9_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_typenotnullcreatetable`class7_name`(`c10_at2`c10_at2_type,`c11_at1`c11_at1_type(64)`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typekey`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc7_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`assoc1`addconstraint`fk_assoc1_c4_at3`foreignkey(`c4_at3`)references`class4_name`(`c4_at3`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascade;primarykey`assoc4`addconstraint`fk_assoc4_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc4_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;primarykey`assoc5`addconstraint`fk_assoc5_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc5_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`assoc6`primarykey`class7_name`addconstraint`fk_assoc6_c4_at3`foreignkey(`c4_at3`)references`class4_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class4_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc9`addconstraint`fk_assoc9_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc9_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_typenotnullcreatetable`class7_name`(`c10_at2`c10_at2_type,`c11_at1`c11_at1_type(64)`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typekey`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc7_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`assoc1`addconstraint`fk_assoc1_c4_at3`foreignkey(`c4_at3`)references`class4_name`(`c4_at3`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc1_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascade;primarykey`assoc4`addconstraint`fk_assoc4_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc4_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;primarykey`assoc5`addconstraint`fk_assoc5_c6_at2`foreignkey(`c6_at2`)references`class6_name`(`c6_at2`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc5_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`assoc6`primarykey`class7_name`addconstraint`fk_assoc6_c4_at3`foreignkey(`c4_at3`)references`class4_name`(`c1_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c10_at1`foreignkey(`c10_at1`)references`class10_name`(`c10_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class4_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc9`addconstraint`fk_assoc9_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_assoc9_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascade</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class2_name`addconstraint`fk_class2_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class2_name`addconstraint`fk_class2_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass10_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class2_name`addconstraint`fk_class2_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass10_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_typenotnullcreatetable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typekey`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class3_name`addconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass10_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_typenotnullcreatetable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typekey`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class3_name`addconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass10_name:map_str3mappingstrategyforclass4_name:map_str1mappingstrategyforclass5_name:map_str1associationstrategyforassoc1:assoc_str1associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_typenotnullcreatetable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class11_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnullprimarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typekey`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class3_name`addconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass4_name:map_str3mappingstrategyforclass3_name:map_str3mappingstrategyforclass7_name:map_str1mappingstrategyforclass9_name:map_str1mappingstrategyforclass10_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass4_name:map_str3mappingstrategyforclass3_name:map_str3mappingstrategyforclass7_name:map_str1mappingstrategyforclass9_name:map_str1mappingstrategyforclass10_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass4_name:map_str3mappingstrategyforclass3_name:map_str3mappingstrategyforclass7_name:map_str1mappingstrategyforclass9_name:map_str1mappingstrategyforclass10_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at1`c7_at1_typenotnullkey`fk_class10_name_c7_at1_idx`(`c7_at1`)primarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class10_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass4_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass3_name:map_str3associationstrategyforassoc2:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class2_name`addconstraint`fk_class2_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class3_name`addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass4_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass3_name:map_str3associationstrategyforassoc2:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class2_name`addconstraint`fk_class2_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class3_name`addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass4_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass11_name:map_str2mappingstrategyforclass14_name:map_str2mappingstrategyforclass3_name:map_str3associationstrategyforassoc2:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_type,key`fk_class01_name_c1_at1_idx`(`c1_at1`),primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc4`()`c3_at1`c3_at1_typenotnull`c01_at1`c01_at1_typenotnull,key`fk_assoc4_c3_at1_idx`(`c3_at1`)key`fk_assoc4_c01_at1d_idx`(`c01_at1`)primarykey(`c3_at1`,`c01_at1`)createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class2_name`addconstraint`fk_class2_name_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`class3_name`addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass4_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass3_name:map_str3mappingstrategyforclass10_name:map_str3mappingstrategyforclass11_name:map_str3mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass4_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass7_name:map_str2mappingstrategyforclass9_name:map_str2mappingstrategyforclass12_name:map_str2mappingstrategyforclass3_name:map_str3mappingstrategyforclass10_name:map_str3mappingstrategyforclass11_name:map_str3mappingstrategyforclass11_name:map_str3mappingstrategyforclass14_name:map_str3associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)pri</t>
+  </si>
+  <si>
+    <t>marykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecas</t>
+  </si>
+  <si>
+    <t>cade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyf</t>
+  </si>
+  <si>
+    <t>orassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`cla</t>
+  </si>
+  <si>
+    <t>ss2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class</t>
+  </si>
+  <si>
+    <t>5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint</t>
+  </si>
+  <si>
+    <t>`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;addconstraintclass4_name:map_str1mappingstrategyforclass5_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc4:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc2:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc6:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_type,key`fk_class2_name_c1_at1_idx`(`c1_at1`),primarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typekey`fk_class8_name_c7_at1_idx`(`c7_at1`)primarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c9_at1`c9_at1_type(20,5),`c7_at1`c7_at1_typenotnullkey`fk_class9_name_c7_at1_idx`(`c7_at1`),primarykey(`c7_at1`),createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),createtable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class11_name`addconstraint`fk_class11_name_c7_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`class9_name`addconstraint`fk_class10_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey</t>
+  </si>
+  <si>
+    <t>np,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsnp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass4_name:map_str3mappingstrategyforclass3_name:map_str3mappingstrategyforclass7_name:map_str1mappingstrategyforclass9_name:map_str1mappingstrategyforclass10_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc1:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class13_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass4_name:map_str3mappingstrategyforclass3_name:map_str3mappingstrategyforclass7_name:map_str1mappingstrategyforclass9_name:map_str1mappingstrategyforclass10_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc1:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class13_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascadenp,moduleom_name:0,opendeclarationonesigclass1_nameextendsclassattrset=c1_at1id=c1_at1isabstract=nonoparent}onesigc1_at1extendsc1_at1_type,onesigclass01_nameextendsclassattrset=c01_at1id=c01_at1isabstract=nonoparent}onesigc01_at1extendsc01_at1_type,onesigassoc1extendsassociationsrc=class1_namedst=class01_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass2_nameextendsclassattrset=c2_at1id=c2_at1isabstract=nonoparent}onesigc2_at1extendsc2_at1_type,onesigassoc2extendsassociationsrc=class1_namedst=class2_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass3_nameextendsclassattrset=c3_at1+c3_at2id=c3_at1isabstract=nonoparent}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_type,onesigclass4_nameextendsclassattrset=c4_at1oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc4_at1extendsc4_at1_type,onesigassoc3extendsassociationdst=class2_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass5_nameextendsclassattrset=c5_at1+c5_at2oneparentid=c3_at1isabstract=noparentinclass3_name}onesigc5_at2extendsc5_at2_typeonesigc5_at1extendsc5_at1_typeonesigassoc4extendsassociationsrc=class01_namedst=class3_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigclass6_nameextendsclassattrset=c6_at1+c6_at2id=categoryidisabstract=nonoparent}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigclass7_nameextendsclassattrset=c7_at1+c7_at2+c7_at3+c7_at4id=c7_at1isabstract=nonoparent}onesigc7_at1extendsc7_at1_typeonesigc7_at2extendsc7_at2_typeonesigc7_at3extendsc7_at3_typeonesigc7_at4extendsc7_at4_typeonesigassoc5extendsassociationsrc=class7_namesrc=class6_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass8_nameextendsclassattrset=c8_at1id=c8_at1isabstract=nonoparent}onesigc8_at1extendsintegeronesigassoc6extendsassociationsrc=class7_namedst=class8_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc,}onesigassoc7extendsassociationsrc=class7_namedst=class3_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass9_nameextendsclassattrset=c9_at1+c10_at2oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc9_at1extendsc9_at1_typeonesigc10_at2extendsc10_at2_typeonesigclass10_nameextendsclassattrset=c10_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc10_at1extendsc10_at1_typeonesigclass11_nameextendsclassattrset=c11_at1oneparentid=c7_at1isabstract=noparentinclass7_name}onesigc11_at1extendsstringonesigclass12_nameextendsclassattrset=c12_at1+c12_at2+c12_at3id=c12_at1isabstract=nonoparent}onesigc12_at1extendsc12_at1_typeonesigc12_at2extendsc12_at2_typeonesigc12_at3extendsc12_at3_typeonesigassoc8extendsassociationsrc=class7_namesrc=class12_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc,}onesigclass13_nameextendsclassattrset=c13_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc13_at1extendsc13_at1_typeonesigclass14_nameextendsclassattrset=c14_at1oneparentid=c12_at1isabstract=noparentinclass12_name}onesigc14_at1extendsc14_at1_typepredshowrunshow,tablename:class1_nametablename:class01_nametablenameclass2_namemappingstrategyforclass1_name:map_str2mappingstrategyforclass6_name:map_str2mappingstrategyforclass4_name:map_str3mappingstrategyforclass3_name:map_str3mappingstrategyforclass7_name:map_str1mappingstrategyforclass9_name:map_str1mappingstrategyforclass10_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass12_name:map_str1mappingstrategyforclass11_name:map_str1mappingstrategyforclass14_name:map_str1associationstrategyforassoc2:assoc_str1associationstrategyforassoc6:assoc_str1associationstrategyforassoc1:assoc_str2associationstrategyforassoc1:assoc_str2associationstrategyforassoc3:assoc_str2associationstrategyforassoc4:assoc_str2associationstrategyforassoc5:assoc_str2associationstrategyforassoc7:assoc_str2associationstrategyforassoc8:assoc_str2,useom_name_0createtable`class01_name`(`c01_at1`c01_at1_typenotnull,primarykey(`c01_at1`),createtable`class6_name`(`c7_at1`c7_at1_type(64)`c6_at1`c6_at1_typenotnullprimarykey(`c6_at1`),createtable`class1_name`(`c1_at1`c1_at1_typenotnullprimarykey(`c1_at1`),createtable`class13_name`(`c13_at1`c13_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class13_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class7_name`(`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class11_name`(`c11_at1`c11_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class4_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_typenotnullkey`fk_class4_name_c3_at1_idx`(`c3_at1`),primarykey(`itemid`),primarykey(`c3_at1`),createtable`assoc1`(`c01_at1`c01_at1_typenotnull,`c1_at1`c1_at1_typenotnullkey`fk_assoc1_c01_at1_idx`(`c01_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),key`fk_assoc1_c1_at1_idx`(`c1_at1`),createtable`class2_name`(`c2_at1`c2_at1_typenotnullprimarykey(`c2_at1`),createtable`class8_name`(`c8_at1`c8_at1_typenotnullprimarykey(`c8_at1`),createtable`assoc7`(`c7_at1`c7_at1_typenotnull`c3_at1`c3_at1_typenotnullkey`fk_assoc7_c7_at1_idx`(`c7_at1`)key`fk_assoc7_c3_at1_idx`(`c3_at1`)primarykey(`c7_at1`,`c3_at1`),createtable`class3_name`(`c3_at2`c3_at2_type`c3_at1`c3_at1_typenotnull`c2_at1`c2_at1_type`c01_at1`c01_at1_typekey`fk_class3_name_c2_at1_idx`(`c2_at1`)key`fk_class3_name_c01_at1_idx`(`c01_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class10_name`(`c10_at1`c10_at1_type(64)`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`class9_name`(`c10_at2`c10_at2_type,`c7_at3`c7_at3_type(64)`c7_at2`c7_at2_type`c9_at1`c9_at1_type(20,5),`c7_at4`c7_at4_type(20,5)`c7_at1`c7_at1_typenotnullprimarykey(`c7_at1`),createtable`assoc2`(`c2_at1`c2_at1_typenotnull`c1_at1`c1_at1_typenotnullkey`fk_assoc2_c2_at1_idx`(`c2_at1`)key`fk_assoc2_c1_at1_idx`(`c1_at1`)primarykey(`c2_at1`,`c1_at1`)createtable`assoc8`(`c12_at1`c12_at1_typenotnull`c7_at1`c7_at1_typenotnullkey`fk_assoc8_c12_at1_idx`(`c12_at1`)key`fk_assoc8_c7_at1_idx`(`c7_at1`)primarykey(`c12_at1`,`c7_at1`),createtable`class14_name`(`c14_at1`c14_at1_type(64)`c12_at1`c12_at1_typenotnullkey`fk_class14_name_c12_at1_idx`(`c12_at1`)primarykey(`c12_at1`),createtable`class5_name`(`c5_at1`c5_at1_type,`c5_at2`c5_at2_type,`c3_at1`c3_at1_typenotnullkey`fk_class5_name_c3_at1_idx`(`c3_at1`)primarykey(`itemid`),primarykey(`c3_at1`),createtable`class12_name`(`c12_at3`c12_at3_type(64)`c12_at2`c12_at2_type(64)`c12_at1`c12_at1_typenotnullprimarykey(`c12_at1`),`c8_at1`c8_at1_typenotnull`c7_at1`c7_at1_typenotnullcreatetable`assoc5`(`c7_at1`c7_at1_typenotnull`c6_at1`c6_at1_typenotnullkey`fk_assoc5_c7_at1_idx`(`c7_at1`)key`fk_assoc5_c6_at1_idx`(`c6_at1`)primarykey(`c7_at1`,`c6_at1`),primarykey`class13_name`addconstraint`fk_class13_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade;primarykey`class4_name`addconstraint`fk_class4_name_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade,primarykey`assoc1`addconstraint`fk_assoc1_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc1_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`class8_name`addconstraint`fk_class8_name_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`assoc7`addconstraint`fk_assoc7_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc7_c3_at1`foreignkey(`c3_at1`)references`class3_name`(`c3_at1`)ondeletecascadeonupdatecascade;addconstraint`fk_class3_name_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_class3_name_c01_at1`foreignkey(`c01_at1`)references`class01_name`(`c01_at1`)ondeletecascadeonupdatecascade,primarykey`assoc2`addconstraint`fk_assoc2_c2_at1`foreignkey(`c2_at1`)references`class2_name`(`c2_at1`)ondeletecascadeonupdatecascadeaddconstraint`fk_assoc2_c1_at1`foreignkey(`c1_at1`)references`class1_name`(`c1_at1`)ondeletecascadeonupdatecascade,primarykey`assoc8`addconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade,addconstraintfk_assoc8_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascade,primarykey`class14_name`addconstraintfk_class14_name_c12_at1`foreignkey(`c12_at1`)references`class12_name`(`c12_at1`)ondeletecascadeonupdatecascade,primarykey`assoc5`addconstraint`fk_assoc5_c7_at1`foreignkey(`c7_at1`)references`class7_name`(`c7_at1`)ondeletecascadeonupdatecascadeaddconstraintfk_assoc5_c6_at1`foreignkey(`c6_at1`)references`class6_name`(`c6_at1`)ondeletecascadeonupdatecascade</t>
   </si>
 </sst>
 </file>
@@ -646,7 +649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -663,7 +668,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -671,7 +676,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -679,7 +684,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -687,7 +692,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -695,7 +700,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -703,7 +708,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -711,7 +716,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -719,7 +724,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -727,7 +732,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -735,7 +740,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -743,7 +748,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -751,7 +756,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -759,7 +764,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -767,7 +772,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -775,7 +780,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -783,7 +788,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -791,7 +796,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -799,7 +804,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -807,7 +812,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -815,7 +820,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -823,15 +828,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -839,7 +844,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -847,31 +852,31 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -879,7 +884,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -887,7 +892,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -895,7 +900,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -903,7 +908,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -911,7 +916,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -919,7 +924,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -927,7 +932,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -935,15 +940,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -951,7 +956,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -959,7 +964,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -967,7 +972,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -975,7 +980,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -983,15 +988,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -999,7 +1004,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1007,7 +1012,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1015,7 +1020,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1023,7 +1028,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1031,7 +1036,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1039,7 +1044,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1047,7 +1052,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1055,7 +1060,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1063,7 +1068,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1071,7 +1076,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1079,7 +1084,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1087,7 +1092,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1095,7 +1100,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1103,7 +1108,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1111,7 +1116,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1119,7 +1124,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1127,7 +1132,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1135,7 +1140,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1143,7 +1148,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1151,7 +1156,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1159,7 +1164,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1167,7 +1172,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1175,7 +1180,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1183,7 +1188,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1191,7 +1196,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1199,7 +1204,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1207,7 +1212,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1215,7 +1220,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1223,7 +1228,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1231,7 +1236,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1239,7 +1244,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1247,7 +1252,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1255,7 +1260,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1263,7 +1268,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1271,15 +1276,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1287,15 +1292,15 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1303,23 +1308,23 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1327,7 +1332,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1335,15 +1340,15 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -1351,15 +1356,15 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1367,7 +1372,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1375,15 +1380,15 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1391,7 +1396,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -1399,7 +1404,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -1407,15 +1412,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -1423,15 +1428,15 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1439,15 +1444,15 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1455,7 +1460,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -1463,7 +1468,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -1471,15 +1476,15 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1487,7 +1492,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1495,10 +1500,10 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
